--- a/Technology/Hardware/Microchip Technology.xlsx
+++ b/Technology/Hardware/Microchip Technology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32DA9A-DF7B-1840-A52E-37DD14FD8D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD865BAE-95A6-704D-92ED-967D14105A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,6 +1017,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2468,11 +2468,11 @@
     <v>Powered by Refinitiv</v>
     <v>87.76</v>
     <v>54.33</v>
-    <v>1.5811999999999999</v>
-    <v>-0.7</v>
-    <v>-9.0320000000000001E-3</v>
-    <v>0.32</v>
-    <v>4.1670000000000006E-3</v>
+    <v>1.5640000000000001</v>
+    <v>-4.7E-2</v>
+    <v>-6.0320000000000003E-4</v>
+    <v>0.13</v>
+    <v>1.6689999999999999E-3</v>
     <v>USD</v>
     <v>Microchip Technology Incorporated is a provider of smart, connected and secure embedded control solutions. The Company's product portfolio is a combination of hardware, software and services. Its synergistic product portfolio empowers disruptive growth trends, including fifth generation, data centers, artificial intelligence and machine learning, Internet of things and edge computing, advanced driver assist systems and autonomous driving, and electric vehicles. It operates through two segments. In the semiconductor products segment, the Company designs, develops, manufactures and markets microcontrollers, development tools and analog, interface, mixed-signal, timing, wired and wireless connectivity devices, and memory products. The technology licensing segment includes sales and licensing of the Company's intellectual property. Its solutions serve approximately 124,000 customers across the industrial, automotive, consumer, aerospace and defense, communications, and computing markets.</v>
     <v>21000</v>
@@ -2480,25 +2480,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2355 W CHANDLER BLVD, CHANDLER, AZ, 85224-6199 US</v>
-    <v>77.14</v>
+    <v>78.36</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.987321435154</v>
+    <v>45065.951957789061</v>
     <v>0</v>
-    <v>76.17</v>
-    <v>42070730000</v>
+    <v>77.47</v>
+    <v>42892420000</v>
     <v>MICROCHIP TECHNOLOGY INCORPORATED</v>
     <v>MICROCHIP TECHNOLOGY INCORPORATED</v>
-    <v>77.099999999999994</v>
-    <v>20.939800000000002</v>
-    <v>77.5</v>
-    <v>76.8</v>
-    <v>77.12</v>
+    <v>78</v>
+    <v>21.052499999999998</v>
+    <v>77.917000000000002</v>
+    <v>77.87</v>
+    <v>78</v>
     <v>547795900</v>
     <v>MCHP</v>
     <v>MICROCHIP TECHNOLOGY INCORPORATED (XNAS:MCHP)</v>
-    <v>3683294</v>
-    <v>4318121</v>
+    <v>3672628</v>
+    <v>4761599</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -3086,10 +3086,10 @@
   <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH88" sqref="AH88"/>
+      <selection pane="bottomRight" activeCell="AD122" sqref="AD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4896,15 +4896,15 @@
       </c>
       <c r="AL16" s="30">
         <f>AM101/AE3</f>
-        <v>6.1679147913032004</v>
+        <v>6.2883812986556027</v>
       </c>
       <c r="AM16" s="30">
         <f>AM101/AE28</f>
-        <v>32.727133411124079</v>
+        <v>33.366332166472191</v>
       </c>
       <c r="AN16" s="31">
         <f>AM101/AE106</f>
-        <v>17.014773922187171</v>
+        <v>17.347092129741974</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -11389,10 +11389,10 @@
       <c r="AE83" s="1">
         <v>-177800000</v>
       </c>
-      <c r="AL83" s="60" t="s">
+      <c r="AL83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AM83" s="61"/>
+      <c r="AM83" s="63"/>
     </row>
     <row r="84" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11488,10 +11488,10 @@
       <c r="AE84" s="1">
         <v>192700000</v>
       </c>
-      <c r="AL84" s="62" t="s">
+      <c r="AL84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AM84" s="63"/>
+      <c r="AM84" s="65"/>
     </row>
     <row r="85" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12433,10 +12433,10 @@
       <c r="AE93" s="1">
         <v>-477700000</v>
       </c>
-      <c r="AL93" s="62" t="s">
+      <c r="AL93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AM93" s="63"/>
+      <c r="AM93" s="65"/>
     </row>
     <row r="94" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12638,7 +12638,7 @@
       </c>
       <c r="AM95" s="39" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
-        <v>1.5811999999999999</v>
+        <v>1.5640000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="AM97" s="36">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>0.10902066000000001</v>
+        <v>0.10828020000000001</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12938,10 +12938,10 @@
       <c r="AE98" s="1">
         <v>-503800000</v>
       </c>
-      <c r="AL98" s="62" t="s">
+      <c r="AL98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AM98" s="63"/>
+      <c r="AM98" s="65"/>
     </row>
     <row r="99" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="AM100" s="34">
         <f>AM99/AM103</f>
-        <v>0.15725099121949696</v>
+        <v>0.15470457517679453</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="AM101" s="40" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>42070730000</v>
+        <v>42892420000</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="AM102" s="34">
         <f>AM101/AM103</f>
-        <v>0.84274900878050307</v>
+        <v>0.84529542482320552</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13450,7 +13450,7 @@
       </c>
       <c r="AM103" s="41">
         <f>AM99+AM101</f>
-        <v>49920830000</v>
+        <v>50742520000</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13547,10 +13547,10 @@
       <c r="AE104" s="11">
         <v>317400000</v>
       </c>
-      <c r="AL104" s="62" t="s">
+      <c r="AL104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AM104" s="63"/>
+      <c r="AM104" s="65"/>
     </row>
     <row r="105" spans="1:39" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -13684,7 +13684,7 @@
       </c>
       <c r="AM105" s="26">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>9.6141346549107567E-2</v>
+        <v>9.5723997977461228E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13850,7 +13850,7 @@
       <c r="AI107" s="43"/>
       <c r="AJ107" s="46">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>51953283861.648148</v>
+        <v>52259864787.95417</v>
       </c>
       <c r="AK107" s="47" t="s">
         <v>148</v>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="AJ108" s="46">
         <f>AJ107+AJ106</f>
-        <v>55559163443.663437</v>
+        <v>55865744369.96946</v>
       </c>
       <c r="AK108" s="47" t="s">
         <v>144</v>
@@ -13891,14 +13891,14 @@
       </c>
       <c r="AM108" s="51">
         <f>AM105</f>
-        <v>9.6141346549107567E-2</v>
+        <v>9.5723997977461228E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="AF109" s="64" t="s">
+      <c r="AF109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AG109" s="65"/>
+      <c r="AG109" s="61"/>
     </row>
     <row r="110" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AF110" s="52" t="s">
@@ -13906,7 +13906,7 @@
       </c>
       <c r="AG110" s="40">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>44605531023.223228</v>
+        <v>44875523839.077515</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13933,7 +13933,7 @@
       </c>
       <c r="AG113" s="40">
         <f>AG110+AG111-AG112</f>
-        <v>37074831023.223228</v>
+        <v>37344823839.077515</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="AG115" s="55">
         <f>AG113/AG114</f>
-        <v>55.003748301538785</v>
+        <v>55.404306213108782</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="AG116" s="56" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>76.8</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13969,7 +13969,7 @@
       </c>
       <c r="AG117" s="58">
         <f>AG115/AG116-1</f>
-        <v>-0.28380536065704709</v>
+        <v>-0.28850255280456172</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Microchip Technology.xlsx
+++ b/Technology/Hardware/Microchip Technology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD865BAE-95A6-704D-92ED-967D14105A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412FDE16-BE9A-504D-8D5E-BA418C182C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2468,37 +2468,34 @@
     <v>Powered by Refinitiv</v>
     <v>87.76</v>
     <v>54.33</v>
-    <v>1.5640000000000001</v>
-    <v>-4.7E-2</v>
-    <v>-6.0320000000000003E-4</v>
-    <v>0.13</v>
-    <v>1.6689999999999999E-3</v>
+    <v>1.5683</v>
+    <v>0.16</v>
+    <v>1.9289999999999999E-3</v>
     <v>USD</v>
-    <v>Microchip Technology Incorporated is a provider of smart, connected and secure embedded control solutions. The Company's product portfolio is a combination of hardware, software and services. Its synergistic product portfolio empowers disruptive growth trends, including fifth generation, data centers, artificial intelligence and machine learning, Internet of things and edge computing, advanced driver assist systems and autonomous driving, and electric vehicles. It operates through two segments. In the semiconductor products segment, the Company designs, develops, manufactures and markets microcontrollers, development tools and analog, interface, mixed-signal, timing, wired and wireless connectivity devices, and memory products. The technology licensing segment includes sales and licensing of the Company's intellectual property. Its solutions serve approximately 124,000 customers across the industrial, automotive, consumer, aerospace and defense, communications, and computing markets.</v>
-    <v>21000</v>
+    <v>Microchip Technology Inc is a provider of smart, connected, and secure embedded control solutions. It is engaged in selling its semiconductor products to distributors and non-distributor customers (direct customers). It operates through two segments: semiconductor products and technology licensing. The semiconductor products segment designs, develops, manufactures and markets mixed-signal microcontrollers, development tools and analog, interface, mixed-signal, timing, wired and wireless connectivity devices, and memory products. The technology licensing segment includes sales and licensing of the Company's intellectual property. It offers a range of general purpose mixed-signal microcontroller products. The Company’s analog product line consists of several families, including power management, linear, mixed-signal, high voltage, thermal management, discrete diodes and drivers, safety, security, timing, Universal Serial Bus (USB), ethernet, wireless and other interface products.</v>
+    <v>22600</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2355 W CHANDLER BLVD, CHANDLER, AZ, 85224-6199 US</v>
-    <v>78.36</v>
+    <v>83.55</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45065.951957789061</v>
+    <v>45099.998205960153</v>
     <v>0</v>
-    <v>77.47</v>
-    <v>42892420000</v>
+    <v>81.93</v>
+    <v>45332318080</v>
     <v>MICROCHIP TECHNOLOGY INCORPORATED</v>
     <v>MICROCHIP TECHNOLOGY INCORPORATED</v>
-    <v>78</v>
-    <v>21.052499999999998</v>
-    <v>77.917000000000002</v>
-    <v>77.87</v>
-    <v>78</v>
-    <v>547795900</v>
+    <v>82.58</v>
+    <v>20.6936</v>
+    <v>82.96</v>
+    <v>83.12</v>
+    <v>545384000</v>
     <v>MCHP</v>
     <v>MICROCHIP TECHNOLOGY INCORPORATED (XNAS:MCHP)</v>
-    <v>3672628</v>
-    <v>4761599</v>
+    <v>203</v>
+    <v>5536441</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -2530,8 +2527,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2552,7 +2547,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2569,7 +2563,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2580,16 +2574,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2655,19 +2646,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2712,9 +2697,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2722,9 +2704,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3089,7 +3068,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AB98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD122" sqref="AD122"/>
+      <selection pane="bottomRight" activeCell="AE123" sqref="AE123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4896,15 +4875,15 @@
       </c>
       <c r="AL16" s="30">
         <f>AM101/AE3</f>
-        <v>6.2883812986556027</v>
+        <v>6.6460904103564049</v>
       </c>
       <c r="AM16" s="30">
         <f>AM101/AE28</f>
-        <v>33.366332166472191</v>
+        <v>35.264347008945933</v>
       </c>
       <c r="AN16" s="31">
         <f>AM101/AE106</f>
-        <v>17.347092129741974</v>
+        <v>18.333866407829813</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12638,7 +12617,7 @@
       </c>
       <c r="AM95" s="39" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
-        <v>1.5640000000000001</v>
+        <v>1.5683</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12841,7 +12820,7 @@
       </c>
       <c r="AM97" s="36">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>0.10828020000000001</v>
+        <v>0.10846531500000001</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13144,7 +13123,7 @@
       </c>
       <c r="AM100" s="34">
         <f>AM99/AM103</f>
-        <v>0.15470457517679453</v>
+        <v>0.14760705292097542</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13246,7 +13225,7 @@
       </c>
       <c r="AM101" s="40" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>42892420000</v>
+        <v>45332318080</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13348,7 +13327,7 @@
       </c>
       <c r="AM102" s="34">
         <f>AM101/AM103</f>
-        <v>0.84529542482320552</v>
+        <v>0.85239294707902458</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13450,7 +13429,7 @@
       </c>
       <c r="AM103" s="41">
         <f>AM99+AM101</f>
-        <v>50742520000</v>
+        <v>53182418080</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13684,7 +13663,7 @@
       </c>
       <c r="AM105" s="26">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>9.5723997977461228E-2</v>
+        <v>9.6457840978160361E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13850,7 +13829,7 @@
       <c r="AI107" s="43"/>
       <c r="AJ107" s="46">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>52259864787.95417</v>
+        <v>51723177204.518173</v>
       </c>
       <c r="AK107" s="47" t="s">
         <v>148</v>
@@ -13881,7 +13860,7 @@
       </c>
       <c r="AJ108" s="46">
         <f>AJ107+AJ106</f>
-        <v>55865744369.96946</v>
+        <v>55329056786.533463</v>
       </c>
       <c r="AK108" s="47" t="s">
         <v>144</v>
@@ -13891,7 +13870,7 @@
       </c>
       <c r="AM108" s="51">
         <f>AM105</f>
-        <v>9.5723997977461228E-2</v>
+        <v>9.6457840978160361E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13906,7 +13885,7 @@
       </c>
       <c r="AG110" s="40">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>44875523839.077515</v>
+        <v>44402892625.266212</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13933,7 +13912,7 @@
       </c>
       <c r="AG113" s="40">
         <f>AG110+AG111-AG112</f>
-        <v>37344823839.077515</v>
+        <v>36872192625.266212</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13951,7 +13930,7 @@
       </c>
       <c r="AG115" s="55">
         <f>AG113/AG114</f>
-        <v>55.404306213108782</v>
+        <v>54.703116548680008</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13960,7 +13939,7 @@
       </c>
       <c r="AG116" s="56" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>77.87</v>
+        <v>83.12</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13969,7 +13948,7 @@
       </c>
       <c r="AG117" s="58">
         <f>AG115/AG116-1</f>
-        <v>-0.28850255280456172</v>
+        <v>-0.34187780860587103</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Microchip Technology.xlsx
+++ b/Technology/Hardware/Microchip Technology.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412FDE16-BE9A-504D-8D5E-BA418C182C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B52C67-7D1C-1441-813A-1A1741CD892A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +544,49 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,99 +922,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,20 +1068,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>MCHP</a:t>
+              <a:t>Microchip Technology</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.45516083623875375"/>
-          <c:y val="2.9304031904653804E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1132,10 +1106,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5956882255389735E-2"/>
-          <c:y val="0.12066498675816292"/>
-          <c:w val="0.86230182421227208"/>
-          <c:h val="0.74437814306153827"/>
+          <c:x val="8.6708401976935731E-2"/>
+          <c:y val="0.14823980400523179"/>
+          <c:w val="0.85134761120263602"/>
+          <c:h val="0.61084306516498932"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1189,6 +1163,105 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AE$3</c:f>
@@ -1290,7 +1363,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AAC0-9547-A6A6-BDFC6A4D7217}"/>
+              <c16:uniqueId val="{00000000-EF94-024E-B00C-3AA1888D5B20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1299,11 +1372,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1341,108 +1414,207 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AE$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AE$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>7100000</c:v>
+                  <c:v>4200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31900000</c:v>
+                  <c:v>19200000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66200000</c:v>
+                  <c:v>36300000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90000000</c:v>
+                  <c:v>43800000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109646000</c:v>
+                  <c:v>51132000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>141935000</c:v>
+                  <c:v>64368000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133762000</c:v>
+                  <c:v>50088000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>208256000</c:v>
+                  <c:v>102044000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>300525000</c:v>
+                  <c:v>142836000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>236230000</c:v>
+                  <c:v>94814000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>227965000</c:v>
+                  <c:v>88232000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>289523000</c:v>
+                  <c:v>137262000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>397734000</c:v>
+                  <c:v>213785000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>469867000</c:v>
+                  <c:v>242369000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>517261000</c:v>
+                  <c:v>357029000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>451302000</c:v>
+                  <c:v>297748000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>357565000</c:v>
+                  <c:v>248820000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>359020000</c:v>
+                  <c:v>217005000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>588614000</c:v>
+                  <c:v>418950000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>513385000</c:v>
+                  <c:v>336705000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>397189000</c:v>
+                  <c:v>127389000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>670209000</c:v>
+                  <c:v>395281000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>689923000</c:v>
+                  <c:v>369009000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>668689000</c:v>
+                  <c:v>324132000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>699388000</c:v>
+                  <c:v>164639000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1552200000</c:v>
+                  <c:v>255400000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1583800000</c:v>
+                  <c:v>355900000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1863300000</c:v>
+                  <c:v>570600000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1849700000</c:v>
+                  <c:v>349400000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2871500000</c:v>
+                  <c:v>1285500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AAC0-9547-A6A6-BDFC6A4D7217}"/>
+              <c16:uniqueId val="{00000001-EF94-024E-B00C-3AA1888D5B20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1451,11 +1623,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1493,9 +1665,108 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AE$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AE$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1594,7 +1865,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AAC0-9547-A6A6-BDFC6A4D7217}"/>
+              <c16:uniqueId val="{00000002-EF94-024E-B00C-3AA1888D5B20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1608,11 +1879,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1540387760"/>
-        <c:axId val="1510854800"/>
+        <c:axId val="588421248"/>
+        <c:axId val="588423520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1540387760"/>
+        <c:axId val="588421248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1911,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1652,7 +1923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1510854800"/>
+        <c:crossAx val="588423520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1660,7 +1931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1510854800"/>
+        <c:axId val="588423520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1709,7 +1980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540387760"/>
+        <c:crossAx val="588421248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1727,10 +1998,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34797048876353143"/>
-          <c:y val="0.92674329259818489"/>
-          <c:w val="0.30405891800838331"/>
-          <c:h val="4.6206831797519256E-2"/>
+          <c:x val="0.34362671717106208"/>
+          <c:y val="0.88851162023271746"/>
+          <c:w val="0.31274646188172112"/>
+          <c:h val="6.2614758005821544E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2312,20 +2583,20 @@
       <xdr:col>33</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>1571624</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4781C492-016C-319B-B8DD-23ECE9B89E4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3236AAC-FB51-3D73-B49E-FD222BC0ED63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,6 +2615,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3065,10 +3390,10 @@
   <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE123" sqref="AE123"/>
+      <selection pane="bottomRight" activeCell="AJ97" sqref="AJ97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3172,19 +3497,19 @@
       <c r="AE1" s="8">
         <v>2022</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2023</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="23">
         <v>2024</v>
       </c>
-      <c r="AH1" s="27">
+      <c r="AH1" s="23">
         <v>2025</v>
       </c>
-      <c r="AI1" s="27">
+      <c r="AI1" s="23">
         <v>2026</v>
       </c>
-      <c r="AJ1" s="27">
+      <c r="AJ1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3193,103 +3518,103 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
@@ -3388,174 +3713,174 @@
       <c r="AE3" s="1">
         <v>6820900000</v>
       </c>
-      <c r="AF3" s="28">
-        <v>8430000000</v>
-      </c>
-      <c r="AG3" s="28">
-        <v>8678000000</v>
-      </c>
-      <c r="AH3" s="28">
-        <v>8749000000</v>
-      </c>
-      <c r="AI3" s="28">
-        <v>9569000000</v>
-      </c>
-      <c r="AJ3" s="28">
-        <v>9805000000</v>
+      <c r="AF3" s="24">
+        <v>8987000000</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>8944000000</v>
+      </c>
+      <c r="AH3" s="24">
+        <v>9073000000</v>
+      </c>
+      <c r="AI3" s="24">
+        <v>9609000000</v>
+      </c>
+      <c r="AJ3" s="24">
+        <v>10308000000</v>
       </c>
       <c r="AK3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AN3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AM3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="66">
         <f>(C3/B3)-1</f>
         <v>0.56369785794813976</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="66">
         <f>(D3/C3)-1</f>
         <v>0.49963950973323712</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="66">
         <f>(E3/D3)-1</f>
         <v>0.37451923076923066</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="66">
         <f t="shared" ref="F4:AJ4" si="0">(F3/E3)-1</f>
         <v>0.16912207065407481</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="66">
         <f t="shared" si="0"/>
         <v>0.18740949941959961</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="66">
         <f t="shared" si="0"/>
         <v>2.4102153219751399E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="66">
         <f t="shared" si="0"/>
         <v>0.21962554740933915</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="66">
         <f t="shared" si="0"/>
         <v>0.44379287877045726</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="66">
         <f t="shared" si="0"/>
         <v>-0.20185824263339525</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="66">
         <f t="shared" si="0"/>
         <v>0.14040689430621045</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="66">
         <f t="shared" si="0"/>
         <v>7.3370357749185766E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="66">
         <f t="shared" si="0"/>
         <v>0.21118897119812363</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="66">
         <f t="shared" si="0"/>
         <v>9.5588096385087029E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="66">
         <f t="shared" si="0"/>
         <v>0.12046432077836555</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="66">
         <f t="shared" si="0"/>
         <v>-3.7838893265272899E-3</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="66">
         <f t="shared" si="0"/>
         <v>-0.12787029912033654</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="66">
         <f t="shared" si="0"/>
         <v>4.9188694305416725E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="66">
         <f t="shared" si="0"/>
         <v>0.56923023353722435</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="66">
         <f t="shared" si="0"/>
         <v>-6.9949334489865178E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="66">
         <f t="shared" si="0"/>
         <v>0.14347198042765341</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="66">
         <f t="shared" si="0"/>
         <v>0.2210349748328142</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="66">
         <f t="shared" si="0"/>
         <v>0.11175284807455599</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="66">
         <f t="shared" si="0"/>
         <v>1.2248513765023006E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="66">
         <f t="shared" si="0"/>
         <v>0.56800887484390339</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="66">
         <f t="shared" si="0"/>
         <v>0.16814127091117537</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="66">
         <f t="shared" si="0"/>
         <v>0.34382536173633449</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="66">
         <f t="shared" si="0"/>
         <v>-1.4076081876810864E-2</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="66">
         <f t="shared" si="0"/>
         <v>3.1132683629744751E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="66">
         <f t="shared" si="0"/>
         <v>0.25421079729332163</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2359072849623951</v>
+        <v>0.31756806286560435</v>
       </c>
       <c r="AG4" s="16">
         <f t="shared" si="0"/>
-        <v>2.9418742586002411E-2</v>
+        <v>-4.784688995215336E-3</v>
       </c>
       <c r="AH4" s="16">
         <f t="shared" si="0"/>
-        <v>8.1816086655912557E-3</v>
+        <v>1.4423076923076872E-2</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="0"/>
-        <v>9.3724997142530464E-2</v>
+        <v>5.9076380469524903E-2</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" si="0"/>
-        <v>2.4662974187480424E-2</v>
+        <v>7.274430221667183E-2</v>
       </c>
       <c r="AK4" s="17">
         <f>(AE4+AD4+AC4)/3</f>
@@ -3570,7 +3895,7 @@
         <v>0.96492050469266621</v>
       </c>
       <c r="AN4" s="17">
-        <f>(AE105+AD105+AC105)/3</f>
+        <f>(AE106+AD106+AC106)/3</f>
         <v>0.2040531417451763</v>
       </c>
     </row>
@@ -3764,16 +4089,16 @@
         <v>4449600000</v>
       </c>
       <c r="AK6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AL6" s="19" t="s">
+      <c r="AN6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AM6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -3883,7 +4208,7 @@
         <v>0.1885</v>
       </c>
       <c r="AN7" s="20">
-        <f>AE106/AE3</f>
+        <f>AE107/AE3</f>
         <v>0.36250348194519783</v>
       </c>
     </row>
@@ -3892,10 +4217,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1">
         <v>20700000</v>
@@ -3984,7 +4309,7 @@
     </row>
     <row r="9" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4107,16 +4432,16 @@
         <v>0.14501018927121054</v>
       </c>
       <c r="AK9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AL9" s="19" t="s">
+      <c r="AM9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AM9" s="19" t="s">
+      <c r="AN9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AN9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -4124,16 +4449,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1">
         <v>56248000</v>
@@ -4178,7 +4503,7 @@
         <v>167222000</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1">
         <v>212391000</v>
@@ -4208,10 +4533,10 @@
         <v>676600000</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="17">
         <f>AE9</f>
@@ -4227,7 +4552,7 @@
       </c>
       <c r="AN10" s="20">
         <f>AE89</f>
-        <v>0</v>
+        <v>7.0034746147869045E-2</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -4235,94 +4560,94 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -4330,16 +4655,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1">
         <v>56248000</v>
@@ -4384,7 +4709,7 @@
         <v>167222000</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U12" s="1">
         <v>212391000</v>
@@ -4414,27 +4739,27 @@
         <v>676600000</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE12" s="1">
         <v>718900000</v>
       </c>
       <c r="AK12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AL12" s="19" t="s">
+      <c r="AN12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AM12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -4590,7 +4915,7 @@
         <v>78900000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1">
         <v>5000000</v>
@@ -4605,7 +4930,7 @@
         <v>17358000</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1">
         <v>50800000</v>
@@ -4617,25 +4942,25 @@
         <v>21100000</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1">
         <v>227781000</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1">
         <v>111537000</v>
@@ -4763,16 +5088,16 @@
         <v>2570500000</v>
       </c>
       <c r="AK15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AL15" s="19" t="s">
+      <c r="AN15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AM15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -4869,7 +5194,7 @@
       <c r="AE16" s="1">
         <v>4941800000</v>
       </c>
-      <c r="AK16" s="29">
+      <c r="AK16" s="25">
         <f>(AE35+AD35+AC35+AB35+AA35)/5</f>
         <v>3.8219438133505798E-2</v>
       </c>
@@ -4881,62 +5206,62 @@
         <f>AM101/AE28</f>
         <v>35.264347008945933</v>
       </c>
-      <c r="AN16" s="31">
-        <f>AM101/AE106</f>
+      <c r="AN16" s="32">
+        <f>AM101/AE107</f>
         <v>18.333866407829813</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1">
         <v>24269000</v>
@@ -4981,7 +5306,7 @@
         <v>245500000</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5076,10 +5401,19 @@
         <v>1143500000</v>
       </c>
       <c r="AK18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AL18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN18" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5173,14 +5507,41 @@
       <c r="AE19" s="10">
         <v>2871500000</v>
       </c>
-      <c r="AK19" s="32">
+      <c r="AF19" s="35">
+        <v>4529000000</v>
+      </c>
+      <c r="AG19" s="35">
+        <v>4505000000</v>
+      </c>
+      <c r="AH19" s="35">
+        <v>4883000000</v>
+      </c>
+      <c r="AI19" s="35">
+        <v>4764000000</v>
+      </c>
+      <c r="AJ19" s="35">
+        <v>5096000000</v>
+      </c>
+      <c r="AK19" s="26">
         <f>AE40-AE56-AE61</f>
         <v>-7530700000</v>
       </c>
+      <c r="AL19" s="30">
+        <f>AM101/AF3</f>
+        <v>5.0442103126738624</v>
+      </c>
+      <c r="AM19" s="31">
+        <f>AG116/AF31</f>
+        <v>13.028213166144202</v>
+      </c>
+      <c r="AN19" s="32">
+        <f>AM101/AF106</f>
+        <v>13.536075867423111</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5196,7 +5557,7 @@
         <v>0.3595166163141994</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AE20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AJ20" si="3">(F19/E19)-1</f>
         <v>0.21828888888888898</v>
       </c>
       <c r="G20" s="15">
@@ -5299,8 +5660,28 @@
         <f t="shared" si="3"/>
         <v>0.55241390495756071</v>
       </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.57722444715305588</v>
+      </c>
+      <c r="AG20" s="16">
+        <f t="shared" si="3"/>
+        <v>-5.2991830426142306E-3</v>
+      </c>
+      <c r="AH20" s="16">
+        <f t="shared" si="3"/>
+        <v>8.3906770255271823E-2</v>
+      </c>
+      <c r="AI20" s="16">
+        <f t="shared" si="3"/>
+        <v>-2.4370264181855394E-2</v>
+      </c>
+      <c r="AJ20" s="16">
+        <f t="shared" si="3"/>
+        <v>6.9689336691855619E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5394,8 +5775,34 @@
       <c r="AE21" s="2">
         <v>0.42099999999999999</v>
       </c>
+      <c r="AF21" s="36">
+        <f>AF19/AF3</f>
+        <v>0.50395015021698009</v>
+      </c>
+      <c r="AG21" s="36">
+        <f t="shared" ref="AG21:AJ21" si="4">AG19/AG3</f>
+        <v>0.5036896243291592</v>
+      </c>
+      <c r="AH21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.53819023476248207</v>
+      </c>
+      <c r="AI21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.49578520137371213</v>
+      </c>
+      <c r="AJ21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.4943733022894839</v>
+      </c>
+      <c r="AM21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN21" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5489,8 +5896,16 @@
       <c r="AE22" s="10">
         <v>1849600000</v>
       </c>
+      <c r="AM22" s="33">
+        <f>(-1*AE98)/AM101</f>
+        <v>1.1113484183864616E-2</v>
+      </c>
+      <c r="AN22" s="34">
+        <f>AE107/AM101</f>
+        <v>5.4543868584802799E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5585,7 +6000,7 @@
         <v>0.2712</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5680,7 +6095,7 @@
         <v>-367100000</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5775,7 +6190,7 @@
         <v>1482500000</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5870,7 +6285,7 @@
         <v>0.21729999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5965,7 +6380,7 @@
         <v>197000000</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6059,10 +6474,25 @@
       <c r="AE28" s="11">
         <v>1285500000</v>
       </c>
+      <c r="AF28" s="37">
+        <v>3472000000</v>
+      </c>
+      <c r="AG28" s="37">
+        <v>3409000000</v>
+      </c>
+      <c r="AH28" s="37">
+        <v>3372000000</v>
+      </c>
+      <c r="AI28" s="37">
+        <v>3757000000</v>
+      </c>
+      <c r="AJ28" s="37">
+        <v>4049000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6078,111 +6508,131 @@
         <v>0.20661157024793386</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AE29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AJ29" si="5">(F28/E28)-1</f>
         <v>0.16739726027397261</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25885942267073458</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.2218493661446681</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0372943619230153</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39974912782721184</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.33620375815620707</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.9420127829223577E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55569407924562508</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55749588378429582</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13370442266763338</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.47308030317408578</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16603973346702927</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16432688044923893</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.12786351579455024</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93060067740374652</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.19631220909416403</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.62165991001024634</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1029445242524867</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.6464110341756921E-2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.1216149199613018</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.49206187602581664</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5512727846986436</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39350039154267824</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60325934251194147</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.3876621100595864</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6791642816256438</v>
       </c>
+      <c r="AF29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.7008945935433681</v>
+      </c>
+      <c r="AG29" s="16">
+        <f t="shared" si="5"/>
+        <v>-1.814516129032262E-2</v>
+      </c>
+      <c r="AH29" s="16">
+        <f t="shared" si="5"/>
+        <v>-1.0853622763273729E-2</v>
+      </c>
+      <c r="AI29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.11417556346381974</v>
+      </c>
+      <c r="AJ29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.7721586372105467E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6276,8 +6726,28 @@
       <c r="AE30" s="2">
         <v>0.1885</v>
       </c>
+      <c r="AF30" s="38">
+        <f>AF28/AF3</f>
+        <v>0.38633581840436187</v>
+      </c>
+      <c r="AG30" s="38">
+        <f t="shared" ref="AG30:AJ30" si="6">AG28/AG3</f>
+        <v>0.38114937388193204</v>
+      </c>
+      <c r="AH30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.37165215474484736</v>
+      </c>
+      <c r="AI30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.39098761577687585</v>
+      </c>
+      <c r="AJ30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.39280170741171905</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6371,8 +6841,23 @@
       <c r="AE31" s="12">
         <v>2.33</v>
       </c>
+      <c r="AF31" s="39">
+        <v>6.38</v>
+      </c>
+      <c r="AG31" s="39">
+        <v>6.26</v>
+      </c>
+      <c r="AH31" s="39">
+        <v>6.19</v>
+      </c>
+      <c r="AI31" s="39">
+        <v>6.9</v>
+      </c>
+      <c r="AJ31" s="39">
+        <v>7.44</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6659,7 +7144,7 @@
     </row>
     <row r="35" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6667,115 +7152,115 @@
         <v>0.44360902800128893</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AE35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AE35" si="7">(D34-C34)/C34</f>
         <v>0.15877015888166479</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.8713105813137762E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.6338038222272814E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9808167072033355E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.945572070392272E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3226722463010014E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12096926190885922</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8117398794772636E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.3242782673629886E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.2443815690779794E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.8976302245348119E-4</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4445985601192667E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7085348612247935E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.9846410200681012E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.11912397193088357</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9498682998907854E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9372474498102369E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5214801119585035E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1089873672728345E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.7606329212347408E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7252676561135874E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.7612150598718022E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.0124017885071855E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.0024019829135543E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.017677782241864E-3</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5210084033613446E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6206088992974239E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5639320029563932E-2</v>
       </c>
     </row>
@@ -6784,94 +7269,94 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="21" x14ac:dyDescent="0.25">
@@ -6879,94 +7364,94 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -6974,16 +7459,16 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1">
         <v>42999000</v>
@@ -7069,34 +7554,34 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1">
         <v>162602000</v>
@@ -7164,16 +7649,16 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1">
         <v>42999000</v>
@@ -7259,16 +7744,16 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1">
         <v>61102000</v>
@@ -7354,16 +7839,16 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1">
         <v>56813000</v>
@@ -7449,16 +7934,16 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1">
         <v>28622000</v>
@@ -7544,16 +8029,16 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10">
         <v>189536000</v>
@@ -7639,16 +8124,16 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1">
         <v>234058000</v>
@@ -7734,43 +8219,43 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1">
         <v>31886000</v>
@@ -7829,34 +8314,34 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1">
         <v>43176000</v>
@@ -7924,34 +8409,34 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1">
         <v>43176000</v>
@@ -8019,52 +8504,52 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1">
         <v>50826000</v>
@@ -8094,19 +8579,19 @@
         <v>107457000</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -8114,73 +8599,73 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1">
         <v>14831000</v>
@@ -8209,16 +8694,16 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1">
         <v>4498000</v>
@@ -8304,16 +8789,16 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1">
         <v>238556000</v>
@@ -8399,94 +8884,94 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8494,16 +8979,16 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11">
         <v>428092000</v>
@@ -8589,16 +9074,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1">
         <v>35281000</v>
@@ -8684,16 +9169,16 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1">
         <v>6246000</v>
@@ -8708,16 +9193,16 @@
         <v>9000000</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1">
         <v>45454000</v>
@@ -8726,34 +9211,34 @@
         <v>268954000</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1">
         <v>17500000</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1">
         <v>49952000</v>
@@ -8779,88 +9264,88 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="1">
         <v>43400000</v>
@@ -8874,34 +9359,34 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1">
         <v>70988000</v>
@@ -8922,7 +9407,7 @@
         <v>95441000</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1">
         <v>98941000</v>
@@ -8952,16 +9437,16 @@
         <v>333800000</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -8969,16 +9454,16 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1">
         <v>56833000</v>
@@ -9064,16 +9549,16 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10">
         <v>98360000</v>
@@ -9159,16 +9644,16 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1">
         <v>3616000</v>
@@ -9180,28 +9665,28 @@
         <v>25000000</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1">
         <v>1150128000</v>
@@ -9254,94 +9739,94 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9349,16 +9834,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1">
         <v>6169000</v>
@@ -9444,16 +9929,16 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1">
         <v>3363000</v>
@@ -9462,7 +9947,7 @@
         <v>1324000</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1">
         <v>918000</v>
@@ -9539,16 +10024,16 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1">
         <v>13148000</v>
@@ -9634,94 +10119,94 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9729,16 +10214,16 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10">
         <v>111508000</v>
@@ -9824,16 +10309,16 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1">
         <v>53000</v>
@@ -9919,16 +10404,16 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1">
         <v>149825000</v>
@@ -10014,16 +10499,16 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1">
         <v>-99467000</v>
@@ -10109,16 +10594,16 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1">
         <v>266173000</v>
@@ -10204,16 +10689,16 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10">
         <v>316584000</v>
@@ -10299,16 +10784,16 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11">
         <v>428092000</v>
@@ -10394,94 +10879,94 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="21" x14ac:dyDescent="0.25">
@@ -10489,94 +10974,94 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10774,7 +11259,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1">
         <v>1400000</v>
@@ -10869,52 +11354,52 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1">
         <v>32481000</v>
@@ -10961,126 +11446,126 @@
     </row>
     <row r="80" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AE80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AE80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.5958272860421324E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8806452055387144E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4752471918800704E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7681943584908934E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2921246087089025E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7851349692965627E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7291577784443296E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2861953109830332E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7606296365962043E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3412379421221863E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1105710814094776E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2270296917067988E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6462930273609882E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0817047603688662E-2</v>
       </c>
     </row>
@@ -11184,52 +11669,52 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1">
         <v>50832000</v>
@@ -11368,74 +11853,74 @@
       <c r="AE83" s="1">
         <v>-177800000</v>
       </c>
-      <c r="AL83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM83" s="63"/>
+      <c r="AL83" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM83" s="69"/>
     </row>
     <row r="84" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1">
         <v>-40914000</v>
@@ -11467,26 +11952,26 @@
       <c r="AE84" s="1">
         <v>192700000</v>
       </c>
-      <c r="AL84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM84" s="65"/>
+      <c r="AL84" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM84" s="70"/>
     </row>
     <row r="85" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1">
         <v>-1961000</v>
@@ -11566,10 +12051,10 @@
       <c r="AE85" s="1">
         <v>79400000</v>
       </c>
-      <c r="AL85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM85" s="24">
+      <c r="AL85" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM85" s="41">
         <f>AE17</f>
         <v>245500000</v>
       </c>
@@ -11668,10 +12153,10 @@
       <c r="AE86" s="1">
         <v>161400000</v>
       </c>
-      <c r="AL86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM86" s="24">
+      <c r="AL86" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM86" s="41">
         <f>AE56</f>
         <v>33800000</v>
       </c>
@@ -11770,10 +12255,10 @@
       <c r="AE87" s="10">
         <v>2842700000</v>
       </c>
-      <c r="AL87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM87" s="24">
+      <c r="AL87" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM87" s="41">
         <f>AE61</f>
         <v>7816300000</v>
       </c>
@@ -11831,183 +12316,183 @@
         <v>-69827000</v>
       </c>
       <c r="R88" s="1">
-        <v>0</v>
+        <v>-102204000</v>
       </c>
       <c r="S88" s="1">
-        <v>0</v>
+        <v>-47504000</v>
       </c>
       <c r="T88" s="1">
-        <v>0</v>
+        <v>-92786000</v>
       </c>
       <c r="U88" s="1">
-        <v>0</v>
+        <v>-61959000</v>
       </c>
       <c r="V88" s="1">
-        <v>0</v>
+        <v>-55242000</v>
       </c>
       <c r="W88" s="1">
-        <v>0</v>
+        <v>-105906000</v>
       </c>
       <c r="X88" s="1">
-        <v>0</v>
+        <v>-156135000</v>
       </c>
       <c r="Y88" s="1">
-        <v>0</v>
+        <v>-90655000</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>-62459000</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>-203600000</v>
       </c>
       <c r="AB88" s="1">
-        <v>0</v>
+        <v>-247300000</v>
       </c>
       <c r="AC88" s="1">
-        <v>0</v>
+        <v>-135900000</v>
       </c>
       <c r="AD88" s="1">
-        <v>0</v>
+        <v>-173300000</v>
       </c>
       <c r="AE88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM88" s="34">
+        <v>-477700000</v>
+      </c>
+      <c r="AL88" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM88" s="43">
         <f>AM85/(AM86+AM87)</f>
         <v>3.127348696194953E-2</v>
       </c>
     </row>
     <row r="89" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AE89" si="9">(-1*B88)/B3</f>
+        <v>2.8184892897406989E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.25522710886806055</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.3403846153846154</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.40503672612801678</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.2363845242511638</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.36609522945673151</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.7524971706933028E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.42838324971910058</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.61635952104844005</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.8231399692606091E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1233947643914764</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.0820295741212143E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.4634919285518617E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.2222842504469804E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.7748076074065735E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.7417693874024007E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11314551028067181</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0124033347085505E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.2389515903994407E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.4794733280508051E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4927413169889412E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.4838995307104274E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.2721183995051786E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.1712410517665485E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.8328209314670697E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.1145498392282961E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.6228619497149265E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5766940957870389E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.1865989997057961E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.0034746147869045E-2</v>
+      </c>
+      <c r="AL89" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AE89" si="7">(-1*B88)/B3</f>
-        <v>2.8184892897406989E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.25522710886806055</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.3403846153846154</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.40503672612801678</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.2363845242511638</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.36609522945673151</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.7524971706933028E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.42838324971910058</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.61635952104844005</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.8231399692606091E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1233947643914764</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.0820295741212143E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.4634919285518617E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.2222842504469804E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.7748076074065735E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.7417693874024007E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AL89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM89" s="24">
+      <c r="AM89" s="41">
         <f>AE27</f>
         <v>197000000</v>
       </c>
@@ -12017,64 +12502,64 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1">
         <v>-1330000</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1">
         <v>-235391000</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>27523000</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1">
         <v>-112707000</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1">
         <v>-752302000</v>
@@ -12092,24 +12577,24 @@
         <v>-2745770000</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB90" s="1">
         <v>-7850600000</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL90" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AM90" s="24">
+      <c r="AM90" s="41">
         <f>AE25</f>
         <v>1482500000</v>
       </c>
@@ -12119,34 +12604,34 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1">
         <v>-18200000</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1">
         <v>-33648000</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1">
         <v>-55552000</v>
@@ -12203,15 +12688,15 @@
         <v>-2000000</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM91" s="34">
+        <v>91</v>
+      </c>
+      <c r="AL91" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM91" s="43">
         <f>AM89/AM90</f>
         <v>0.13288364249578416</v>
       </c>
@@ -12221,10 +12706,10 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1">
         <v>4400000</v>
@@ -12233,25 +12718,25 @@
         <v>13800000</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1">
         <v>34916000</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1">
         <v>1085934000</v>
@@ -12305,15 +12790,15 @@
         <v>4700000</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM92" s="36">
+        <v>91</v>
+      </c>
+      <c r="AL92" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM92" s="43">
         <f>AM88*(1-AM91)</f>
         <v>2.7117752100901261E-2</v>
       </c>
@@ -12329,22 +12814,22 @@
         <v>100000</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1">
         <v>692000</v>
@@ -12412,10 +12897,10 @@
       <c r="AE93" s="1">
         <v>-477700000</v>
       </c>
-      <c r="AL93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM93" s="65"/>
+      <c r="AL93" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM93" s="70"/>
     </row>
     <row r="94" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12511,11 +12996,12 @@
       <c r="AE94" s="10">
         <v>-477700000</v>
       </c>
-      <c r="AL94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM94" s="37">
-        <v>4.095E-2</v>
+      <c r="AL94" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM94" s="44">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12523,67 +13009,67 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1">
         <v>-1103954000</v>
@@ -12612,10 +13098,10 @@
       <c r="AE95" s="1">
         <v>-6549000000</v>
       </c>
-      <c r="AL95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM95" s="39" cm="1">
+      <c r="AL95" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM95" s="46" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
         <v>1.5683</v>
       </c>
@@ -12714,10 +13200,10 @@
       <c r="AE96" s="1">
         <v>70500000</v>
       </c>
-      <c r="AL96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM96" s="37">
+      <c r="AL96" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12726,16 +13212,16 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-19463000</v>
@@ -12747,10 +13233,10 @@
         <v>-79512000</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1">
         <v>-27777000</v>
@@ -12768,7 +13254,7 @@
         <v>-3320000</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1">
         <v>-1138040000</v>
@@ -12777,50 +13263,50 @@
         <v>-123929000</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="1">
         <v>-363829000</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE97" s="1">
         <v>-425600000</v>
       </c>
-      <c r="AL97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM97" s="36">
+      <c r="AL97" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM97" s="43">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>0.10846531500000001</v>
+        <v>0.10950530400000001</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12828,34 +13314,34 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1">
         <v>-8129000</v>
@@ -12917,10 +13403,10 @@
       <c r="AE98" s="1">
         <v>-503800000</v>
       </c>
-      <c r="AL98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM98" s="65"/>
+      <c r="AL98" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM98" s="70"/>
     </row>
     <row r="99" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12954,13 +13440,13 @@
         <v>-9000000</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N99" s="1">
         <v>45454000</v>
@@ -13016,10 +13502,10 @@
       <c r="AE99" s="1">
         <v>5080300000</v>
       </c>
-      <c r="AL99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM99" s="24">
+      <c r="AL99" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM99" s="41">
         <f>AM86+AM87</f>
         <v>7850100000</v>
       </c>
@@ -13118,10 +13604,10 @@
       <c r="AE100" s="10">
         <v>-2327600000</v>
       </c>
-      <c r="AL100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM100" s="34">
+      <c r="AL100" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM100" s="43">
         <f>AM99/AM103</f>
         <v>0.14760705292097542</v>
       </c>
@@ -13131,99 +13617,99 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V101" s="1">
         <v>986000</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X101" s="1">
         <v>-201000</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z101" s="1">
         <v>-1007000</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM101" s="40" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AL101" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM101" s="48" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
         <v>45332318080</v>
       </c>
@@ -13322,10 +13808,10 @@
       <c r="AE102" s="10">
         <v>37400000</v>
       </c>
-      <c r="AL102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM102" s="34">
+      <c r="AL102" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM102" s="43">
         <f>AM101/AM103</f>
         <v>0.85239294707902458</v>
       </c>
@@ -13424,10 +13910,10 @@
       <c r="AE103" s="1">
         <v>280000000</v>
       </c>
-      <c r="AL103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM103" s="41">
+      <c r="AL103" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM103" s="49">
         <f>AM99+AM101</f>
         <v>53182418080</v>
       </c>
@@ -13437,16 +13923,16 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11">
         <v>42999000</v>
@@ -13526,436 +14012,540 @@
       <c r="AE104" s="11">
         <v>317400000</v>
       </c>
-      <c r="AL104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM104" s="65"/>
+      <c r="AL104" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM104" s="70"/>
     </row>
     <row r="105" spans="1:39" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-1.1764705882352942</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>29.777777777777779</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.53068592057761732</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-0.96636792452830189</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>5.1430575035063111</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AE105" si="8">(H106/G106)-1</f>
-        <v>-8.1914383561643831</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.56615394383859541</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.8341077896893641</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.7181381603250832</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.34043060774139677</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.55491101223581762</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.550414381932443E-2</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.2470820279171948</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.4100557018965185E-2</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.0961241987396129E-2</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.45352336547631666</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.96061255356692721</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.13293344179525923</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.27087975521980245</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.18340377385598994</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.42525944642997149</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.4584057981302356E-2</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.13097199629182632</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.52205422927737599</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.23234248716140549</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.19219986807387857</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.0955806072342487E-2</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.23553719008264462</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.3556664290805418</v>
-      </c>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="15"/>
-      <c r="AJ105" s="15"/>
-      <c r="AK105" s="15"/>
-      <c r="AL105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM105" s="26">
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:AD105" si="10">(B22*(1-$AM$91))+B77+B88+B81</f>
+        <v>4555851.6020236081</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-3002495.7841483988</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-20064451.939291738</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>-30241045.531197309</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>177687.01517707109</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>-3045126.4755480736</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>42285415.17706576</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>19561647.554806054</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>-220803559.52782464</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>150024607.41989881</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>127683880.94435075</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>234637829.34232715</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>269050044.51939291</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>355182562.9005059</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>278181607.41989881</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>281912655.98650926</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>167255525.46374369</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>257053955.81787521</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>411841835.75042152</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>273075509.61214161</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>380844226.9814502</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>496493480.26981449</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>482264064.0809443</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>576918112.98482299</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>940735432.37774026</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>1488681045.5311971</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>1433181214.1652613</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>1574110994.9409781</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>1818468836.4249578</v>
+      </c>
+      <c r="AE105" s="1">
+        <f>(AE22*(1-$AM$91))+AE77+AE88+AE81</f>
+        <v>2303818414.8397975</v>
+      </c>
+      <c r="AF105" s="27">
+        <f>AE105*(1+$AM$106)</f>
+        <v>2515321447.4441118</v>
+      </c>
+      <c r="AG105" s="27">
+        <f t="shared" ref="AG105:AJ105" si="11">AF105*(1+$AM$106)</f>
+        <v>2746241606.2041492</v>
+      </c>
+      <c r="AH105" s="27">
+        <f t="shared" si="11"/>
+        <v>2998361488.671844</v>
+      </c>
+      <c r="AI105" s="27">
+        <f t="shared" si="11"/>
+        <v>3273627344.5280142</v>
+      </c>
+      <c r="AJ105" s="27">
+        <f t="shared" si="11"/>
+        <v>3574164099.7358809</v>
+      </c>
+      <c r="AK105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL105" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM105" s="51">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>9.6457840978160361E-2</v>
+        <v>9.7344320266800136E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>5100000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-900000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-27700000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-42400000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-1426000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-8760000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>62997000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>27331000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-186783000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>134136000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>179800000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>279573000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>289499000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>361029000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>369730000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>377480000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>206284000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>404443000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>458207000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>334088000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>395361000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>563492000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>571710000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>646588000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>984142000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>1212800000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>1445900000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>1476200000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>1823900000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>2472600000</v>
-      </c>
-      <c r="AF106" s="42">
-        <f>AE106*(1+$AM$106)</f>
-        <v>2666400215.8426585</v>
-      </c>
-      <c r="AG106" s="42">
-        <f t="shared" ref="AG106:AJ106" si="9">AF106*(1+$AM$106)</f>
-        <v>2875390322.3512807</v>
-      </c>
-      <c r="AH106" s="42">
-        <f t="shared" si="9"/>
-        <v>3100760889.812079</v>
-      </c>
-      <c r="AI106" s="42">
-        <f t="shared" si="9"/>
-        <v>3343795804.3643942</v>
-      </c>
-      <c r="AJ106" s="42">
-        <f t="shared" si="9"/>
-        <v>3605879582.0152864</v>
-      </c>
-      <c r="AK106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:AE106" si="12">(C107/B107)-1</f>
+        <v>-1.1764705882352942</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="12"/>
+        <v>29.777777777777779</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.53068592057761732</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.96636792452830189</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
+        <v>5.1430575035063111</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
+        <v>-8.1914383561643831</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.56615394383859541</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
+        <v>-7.8341077896893641</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.7181381603250832</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.34043060774139677</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.55491101223581762</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
+        <v>3.550414381932443E-2</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.2470820279171948</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.4100557018965185E-2</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.0961241987396129E-2</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.45352336547631666</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.96061255356692721</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.13293344179525923</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.27087975521980245</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.18340377385598994</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.42525944642997149</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.4584057981302356E-2</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.13097199629182632</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.52205422927737599</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.23234248716140549</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.19219986807387857</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.0955806072342487E-2</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.23553719008264462</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.3556664290805418</v>
+      </c>
+      <c r="AF106" s="64">
+        <v>3349000000</v>
+      </c>
+      <c r="AG106" s="64">
+        <v>3313000000</v>
+      </c>
+      <c r="AH106" s="64">
+        <v>3757000000</v>
+      </c>
+      <c r="AI106" s="64">
+        <v>3566000000</v>
+      </c>
+      <c r="AJ106" s="64">
+        <v>3768000000</v>
+      </c>
+      <c r="AK106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL106" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM106" s="53">
         <f>(SUM(AF4:AJ4)/5)</f>
-        <v>7.8379121508799929E-2</v>
+        <v>9.1805426695932529E-2</v>
       </c>
     </row>
     <row r="107" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="43"/>
-      <c r="AG107" s="43"/>
-      <c r="AH107" s="43"/>
-      <c r="AI107" s="43"/>
-      <c r="AJ107" s="46">
+      <c r="A107" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5100000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-900000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-27700000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-42400000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-1426000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-8760000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>62997000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>27331000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-186783000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>134136000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>179800000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>279573000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>289499000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>361029000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>369730000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>377480000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>206284000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>404443000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>458207000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>334088000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>395361000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>563492000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>571710000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>646588000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>984142000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1212800000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>1445900000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>1476200000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>1823900000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>2472600000</v>
+      </c>
+      <c r="AF107" s="28"/>
+      <c r="AG107" s="28"/>
+      <c r="AH107" s="28"/>
+      <c r="AI107" s="28"/>
+      <c r="AJ107" s="65">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>51723177204.518173</v>
-      </c>
-      <c r="AK107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM107" s="49">
+        <v>53386361026.77462</v>
+      </c>
+      <c r="AK107" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL107" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="AF108" s="46">
-        <f t="shared" ref="AF108:AH108" si="10">AF107+AF106</f>
-        <v>2666400215.8426585</v>
-      </c>
-      <c r="AG108" s="46">
-        <f t="shared" si="10"/>
-        <v>2875390322.3512807</v>
-      </c>
-      <c r="AH108" s="46">
-        <f t="shared" si="10"/>
-        <v>3100760889.812079</v>
-      </c>
-      <c r="AI108" s="46">
+      <c r="AF108" s="65">
+        <f t="shared" ref="AF108:AH108" si="13">AF107+AF106</f>
+        <v>3349000000</v>
+      </c>
+      <c r="AG108" s="65">
+        <f t="shared" si="13"/>
+        <v>3313000000</v>
+      </c>
+      <c r="AH108" s="65">
+        <f t="shared" si="13"/>
+        <v>3757000000</v>
+      </c>
+      <c r="AI108" s="65">
         <f>AI107+AI106</f>
-        <v>3343795804.3643942</v>
-      </c>
-      <c r="AJ108" s="46">
+        <v>3566000000</v>
+      </c>
+      <c r="AJ108" s="65">
         <f>AJ107+AJ106</f>
-        <v>55329056786.533463</v>
-      </c>
-      <c r="AK108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM108" s="51">
+        <v>57154361026.77462</v>
+      </c>
+      <c r="AK108" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL108" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM108" s="53">
         <f>AM105</f>
-        <v>9.6457840978160361E-2</v>
+        <v>9.7344320266800136E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="AF109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG109" s="61"/>
+      <c r="AF109" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG109" s="67"/>
     </row>
     <row r="110" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG110" s="40">
+      <c r="AF110" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG110" s="48">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>44402892625.266212</v>
+        <v>47025592456.577866</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG111" s="40">
+      <c r="AF111" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG111" s="48">
         <f>AE40</f>
         <v>319400000</v>
       </c>
     </row>
     <row r="112" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG112" s="40">
+      <c r="AF112" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG112" s="48">
         <f>AM99</f>
         <v>7850100000</v>
       </c>
     </row>
     <row r="113" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG113" s="40">
+      <c r="AF113" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG113" s="48">
         <f>AG110+AG111-AG112</f>
-        <v>36872192625.266212</v>
+        <v>39494892456.577866</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG114" s="53">
+      <c r="AF114" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG114" s="57">
         <f>AE34*(1+(5*AK16))</f>
         <v>674041900.19875467</v>
       </c>
     </row>
     <row r="115" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG115" s="55">
+      <c r="AF115" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG115" s="59">
         <f>AG113/AG114</f>
-        <v>54.703116548680008</v>
+        <v>58.594120699220646</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG116" s="56" cm="1">
+      <c r="AF116" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG116" s="60" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
         <v>83.12</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG117" s="58">
+      <c r="AF117" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG117" s="61">
         <f>AG115/AG116-1</f>
-        <v>-0.34187780860587103</v>
+        <v>-0.29506592036548795</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG118" s="59" t="str">
+      <c r="AF118" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG118" s="62" t="str">
         <f>IF(AG115&gt;AG116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -14032,8 +14622,9 @@
     <hyperlink ref="AE36" r:id="rId60" tooltip="https://www.sec.gov/Archives/edgar/data/827054/000082705422000094/0000827054-22-000094-index.htm" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="AE74" r:id="rId61" tooltip="https://www.sec.gov/Archives/edgar/data/827054/000082705422000094/0000827054-22-000094-index.htm" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="AF1" r:id="rId62" display="https://finbox.com/NASDAQGS:MCHP/explorer/revenue_proj" xr:uid="{B66DCE03-CD00-8C4B-9B39-5B07B45F5BA6}"/>
+    <hyperlink ref="AK106" r:id="rId63" xr:uid="{5AC013B5-2CB5-5F42-AE95-3005C09B6393}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId63"/>
+  <drawing r:id="rId64"/>
 </worksheet>
 </file>